--- a/classfiers/chain/knn/smote/chain-knn-smote-results.xlsx
+++ b/classfiers/chain/knn/smote/chain-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9364406779661016</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9650655021834061</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9505376344086022</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.991835959749383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8725868725868726</v>
+        <v>0.9585062240663901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9868995633187773</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9262295081967213</v>
+        <v>0.9788135593220338</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9790393013100437</v>
+        <v>0.9891304347826088</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.919831223628692</v>
+        <v>0.9543568464730291</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9478260869565217</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9336188436830835</v>
+        <v>0.9766454352441614</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9758686159103854</v>
+        <v>0.982608695652174</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8218181818181818</v>
+        <v>0.9913793103448276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9826086956521739</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8950495049504951</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9766090753749763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9911894273127754</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.982532751091703</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.986842105263158</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9973112640872599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9083732766625247</v>
+        <v>0.9808484761768493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9729865198405164</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.938455519300412</v>
+        <v>0.9902259980474382</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9841328432864096</v>
+        <v>0.9943478260869565</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/knn/smote/chain-knn-smote-results.xlsx
+++ b/classfiers/chain/knn/smote/chain-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.8869179600886917</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.8891249999999999</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9585062240663901</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9788135593220338</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9891304347826088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9543568464730291</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9766454352441614</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.982608695652174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9913793103448276</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9974937343358395</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9974120603015075</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9808484761768493</v>
+        <v>0.9583625498007968</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9902259980474382</v>
+        <v>0.9768823388849063</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9943478260869565</v>
+        <v>0.9773074120603015</v>
       </c>
     </row>
   </sheetData>
